--- a/biology/Botanique/Cerbera_odollam/Cerbera_odollam.xlsx
+++ b/biology/Botanique/Cerbera_odollam/Cerbera_odollam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerbera odollam, l’'arbre à suicide,  est une espèce de plantes à fleurs dicotylédones de la famille des Apocynaceae, originaire de l'Inde.
 Cerbera odollam, comme le Cerbera manghas, a des fruits, des graines et un latex toxiques et mortels. En Inde, on utilise cette plante pour se suicider et parfois pour commettre un meurtre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">cerbera odollam est un petit arbre qui pousse près des deltas marécageux des fleuves et des mangroves d'Asie du Sud, d'Asie du Sud-Est et des îles de l'Océanie.
 Son fruit ressemble à une mangue.
@@ -520,7 +534,7 @@
 			Arbre à Madagascar.
 			Fleurs et feuilles à Krabi en Thaïlande.
 			Fruits en Inde.
-Cette plante contient un poison mortel qui est aussi utilisé dans la pharmacopée traditionnelle car, à très faible dose, c'est un cardiotonique très efficace et un excellent vomitif[2].
+Cette plante contient un poison mortel qui est aussi utilisé dans la pharmacopée traditionnelle car, à très faible dose, c'est un cardiotonique très efficace et un excellent vomitif.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 janvier 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 janvier 2018) :
 Cerbera dilatata Markgr.
 Cerbera forsteri Seem.
 Cerbera lactaria Buch.-Ham. ex Spreng.
